--- a/AWS/Sysbench_AWS_PG15_8C32G.xlsx
+++ b/AWS/Sysbench_AWS_PG15_8C32G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/AWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE0DDAC-44DF-924D-ACA8-7893657160B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0695B3E1-938D-B448-819C-4F8EA9BA57FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="500" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="12640" yWindow="1080" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,14 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,19 +108,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2926,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7D2C7-6C6F-7146-830A-4360D5AD83F5}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3052,11 +3062,11 @@
         <v>14.215</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E8" si="3">Q3</f>
+        <f t="shared" ref="E3:E10" si="3">Q3</f>
         <v>0.19500000000000001</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F8" si="4">B3/$B$13</f>
+        <f t="shared" ref="F3:F10" si="4">B3/$B$13</f>
         <v>0.59282832452297574</v>
       </c>
       <c r="G3" s="1"/>
@@ -3325,6 +3335,29 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>256</v>
+      </c>
+      <c r="B9" s="2">
+        <f>N9</f>
+        <v>1543.42</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:D10" si="5">O9</f>
+        <v>30871.73</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="5"/>
+        <v>248.83</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0551257639711857</v>
+      </c>
       <c r="M9" t="s">
         <v>9</v>
       </c>
@@ -3342,6 +3375,29 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>512</v>
+      </c>
+      <c r="B10" s="2">
+        <f>N10</f>
+        <v>1325.27</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="5"/>
+        <v>26507.87</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="5"/>
+        <v>746.32</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7646502709684291</v>
+      </c>
       <c r="M10">
         <v>512</v>
       </c>
@@ -3364,6 +3420,26 @@
       </c>
       <c r="B13">
         <v>751.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f>N9/N8</f>
+        <v>1.1595768658622712</v>
+      </c>
+      <c r="P15">
+        <f>P9/P8</f>
+        <v>1.7792634966035039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f>N10/N8</f>
+        <v>0.99568000480834251</v>
+      </c>
+      <c r="P16">
+        <f>P10/P8</f>
+        <v>5.3365749016803727</v>
       </c>
     </row>
   </sheetData>

--- a/AWS/Sysbench_AWS_PG15_8C32G.xlsx
+++ b/AWS/Sysbench_AWS_PG15_8C32G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/AWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0695B3E1-938D-B448-819C-4F8EA9BA57FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1C5CB-E24F-784D-9F79-07FE0AFD8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12640" yWindow="1080" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="25100" yWindow="500" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,10 +271,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.32616742786381003</c:v>
                 </c:pt>
@@ -295,6 +295,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.8591763092368943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0551257639711857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7646502709684291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,10 +354,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -372,16 +378,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>244.95499999999998</c:v>
                 </c:pt>
@@ -402,6 +414,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1396.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1543.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1325.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,9 +859,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>p95 (ms)</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -856,10 +871,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -880,16 +895,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11.96</c:v>
                 </c:pt>
@@ -910,6 +931,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>136.17000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>746.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,10 +991,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -988,16 +1015,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1018,6 +1051,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,7 +2978,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/AWS/Sysbench_AWS_PG15_8C32G.xlsx
+++ b/AWS/Sysbench_AWS_PG15_8C32G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/AWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1C5CB-E24F-784D-9F79-07FE0AFD8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DAAFA1-3273-2D4E-8692-37427583008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25100" yWindow="500" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="22600" yWindow="500" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,6 +859,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P95 latency (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
